--- a/biology/Botanique/Monopolowa/Monopolowa.xlsx
+++ b/biology/Botanique/Monopolowa/Monopolowa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Monopolowa est une marque de vodka originaire de Pologne qui est produite actuellement en Autriche.  
 Distillée à partir de pomme de terre, elle est produite sous la marque d'un producteur d'alcools polonais d'avant-guerre, J. A. Baczewski. 
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme « monopolowa » est en polonais un adjectif générique se rapportant au monopole public. Dans le cas de cette vodka, il évoque un ancien privilège de la noblesse : vers le milieu du XVIIe siècle, un monopole était en effet accordé aux Szlachta (noblesse) sur la production et la vente de vodka dans leurs territoires.
 La Monopolowa est une vodka de pommes de terre typique, produite selon une formule traditionnelle, empreinte d'intensité distincte, de douceur, de profondeur de goût et de complexité, tous caractères attribuables à une tradition de « retour aux fondamentaux » de la distillation à base de pommes de terre (les vodkas originaires de Pologne, d'Estonie, de Lettonie, de Lituanie et de Russie sont traditionnellement produites à partir de pommes de terre. Actuellement, la plupart des autres vodkas sont produites à partir de céréales).
@@ -549,7 +563,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2010 : The Beverage Testing Institute International Review of Spirits Award : médaille d'or, note : 93 points (exceptionnelle) et meilleur achat ;
 2009 : The International Wine and Spirit Competition : médaille d'argent ;
